--- a/excel_files/broad_money_monthly.xlsx
+++ b/excel_files/broad_money_monthly.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91978\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91978\Desktop\inflation_prediction_project\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6E01BCA-F3AB-4EEC-B57B-8CCE706E9095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91265F8F-7759-49C3-AB49-23F0EDA9A7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{244D2DE0-3A7B-4AFF-BC32-F231C4B03030}"/>
   </bookViews>
@@ -46,6 +46,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/yyyy"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -111,6 +114,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +434,7 @@
   <dimension ref="B1:ND362"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1176,7 +1180,7 @@
       <c r="MW2" s="3"/>
     </row>
     <row r="3" spans="2:368" x14ac:dyDescent="0.45">
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>32509</v>
       </c>
       <c r="C3" s="2">
@@ -1184,7 +1188,7 @@
       </c>
     </row>
     <row r="4" spans="2:368" x14ac:dyDescent="0.45">
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>32540</v>
       </c>
       <c r="C4" s="2">
@@ -1192,7 +1196,7 @@
       </c>
     </row>
     <row r="5" spans="2:368" x14ac:dyDescent="0.45">
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>32568</v>
       </c>
       <c r="C5" s="2">
@@ -1200,7 +1204,7 @@
       </c>
     </row>
     <row r="6" spans="2:368" x14ac:dyDescent="0.45">
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>32599</v>
       </c>
       <c r="C6" s="2">
@@ -1208,7 +1212,7 @@
       </c>
     </row>
     <row r="7" spans="2:368" x14ac:dyDescent="0.45">
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>32629</v>
       </c>
       <c r="C7" s="2">
@@ -1216,7 +1220,7 @@
       </c>
     </row>
     <row r="8" spans="2:368" x14ac:dyDescent="0.45">
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>32660</v>
       </c>
       <c r="C8" s="2">
@@ -1224,7 +1228,7 @@
       </c>
     </row>
     <row r="9" spans="2:368" x14ac:dyDescent="0.45">
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>32690</v>
       </c>
       <c r="C9" s="2">
@@ -1232,7 +1236,7 @@
       </c>
     </row>
     <row r="10" spans="2:368" x14ac:dyDescent="0.45">
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>32721</v>
       </c>
       <c r="C10" s="2">
@@ -1240,7 +1244,7 @@
       </c>
     </row>
     <row r="11" spans="2:368" x14ac:dyDescent="0.45">
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>32752</v>
       </c>
       <c r="C11" s="2">
@@ -1248,7 +1252,7 @@
       </c>
     </row>
     <row r="12" spans="2:368" x14ac:dyDescent="0.45">
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>32782</v>
       </c>
       <c r="C12" s="2">
@@ -1256,7 +1260,7 @@
       </c>
     </row>
     <row r="13" spans="2:368" x14ac:dyDescent="0.45">
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>32813</v>
       </c>
       <c r="C13" s="2">
@@ -1264,7 +1268,7 @@
       </c>
     </row>
     <row r="14" spans="2:368" x14ac:dyDescent="0.45">
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>32843</v>
       </c>
       <c r="C14" s="2">
@@ -1272,7 +1276,7 @@
       </c>
     </row>
     <row r="15" spans="2:368" x14ac:dyDescent="0.45">
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>32874</v>
       </c>
       <c r="C15" s="2">
@@ -1280,7 +1284,7 @@
       </c>
     </row>
     <row r="16" spans="2:368" x14ac:dyDescent="0.45">
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>32905</v>
       </c>
       <c r="C16" s="2">
@@ -1288,7 +1292,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>32933</v>
       </c>
       <c r="C17" s="2">
@@ -1296,7 +1300,7 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>32964</v>
       </c>
       <c r="C18" s="2">
@@ -1304,7 +1308,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>32994</v>
       </c>
       <c r="C19" s="2">
@@ -1312,7 +1316,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>33025</v>
       </c>
       <c r="C20" s="2">
@@ -1320,7 +1324,7 @@
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>33055</v>
       </c>
       <c r="C21" s="2">
@@ -1328,7 +1332,7 @@
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>33086</v>
       </c>
       <c r="C22" s="2">
@@ -1336,7 +1340,7 @@
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>33117</v>
       </c>
       <c r="C23" s="2">
@@ -1344,7 +1348,7 @@
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>33147</v>
       </c>
       <c r="C24" s="2">
@@ -1352,7 +1356,7 @@
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>33178</v>
       </c>
       <c r="C25" s="2">
@@ -1360,7 +1364,7 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>33208</v>
       </c>
       <c r="C26" s="2">
@@ -1368,7 +1372,7 @@
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>33239</v>
       </c>
       <c r="C27" s="2">
@@ -1376,7 +1380,7 @@
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>33270</v>
       </c>
       <c r="C28" s="2">
@@ -1384,7 +1388,7 @@
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>33298</v>
       </c>
       <c r="C29" s="2">
@@ -1392,7 +1396,7 @@
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>33329</v>
       </c>
       <c r="C30" s="2">
@@ -1400,7 +1404,7 @@
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>33359</v>
       </c>
       <c r="C31" s="2">
@@ -1408,7 +1412,7 @@
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>33390</v>
       </c>
       <c r="C32" s="2">
@@ -1416,7 +1420,7 @@
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>33420</v>
       </c>
       <c r="C33" s="2">
@@ -1424,7 +1428,7 @@
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>33451</v>
       </c>
       <c r="C34" s="2">
@@ -1432,7 +1436,7 @@
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>33482</v>
       </c>
       <c r="C35" s="2">
@@ -1440,7 +1444,7 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <v>33512</v>
       </c>
       <c r="C36" s="2">
@@ -1448,7 +1452,7 @@
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>33543</v>
       </c>
       <c r="C37" s="2">
@@ -1456,7 +1460,7 @@
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <v>33573</v>
       </c>
       <c r="C38" s="2">
@@ -1464,7 +1468,7 @@
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <v>33604</v>
       </c>
       <c r="C39" s="2">
@@ -1472,7 +1476,7 @@
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <v>33635</v>
       </c>
       <c r="C40" s="2">
@@ -1480,7 +1484,7 @@
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <v>33664</v>
       </c>
       <c r="C41" s="2">
@@ -1488,7 +1492,7 @@
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <v>33695</v>
       </c>
       <c r="C42" s="2">
@@ -1496,7 +1500,7 @@
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <v>33725</v>
       </c>
       <c r="C43" s="2">
@@ -1504,7 +1508,7 @@
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <v>33756</v>
       </c>
       <c r="C44" s="2">
@@ -1512,7 +1516,7 @@
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <v>33786</v>
       </c>
       <c r="C45" s="2">
@@ -1520,7 +1524,7 @@
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <v>33817</v>
       </c>
       <c r="C46" s="2">
@@ -1528,7 +1532,7 @@
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <v>33848</v>
       </c>
       <c r="C47" s="2">
@@ -1536,7 +1540,7 @@
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>33878</v>
       </c>
       <c r="C48" s="2">
@@ -1544,7 +1548,7 @@
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <v>33909</v>
       </c>
       <c r="C49" s="2">
@@ -1552,7 +1556,7 @@
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B50" s="3">
+      <c r="B50" s="4">
         <v>33939</v>
       </c>
       <c r="C50" s="2">
@@ -1560,7 +1564,7 @@
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <v>33970</v>
       </c>
       <c r="C51" s="2">
@@ -1568,7 +1572,7 @@
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <v>34001</v>
       </c>
       <c r="C52" s="2">
@@ -1576,7 +1580,7 @@
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <v>34029</v>
       </c>
       <c r="C53" s="2">
@@ -1584,7 +1588,7 @@
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <v>34060</v>
       </c>
       <c r="C54" s="2">
@@ -1592,7 +1596,7 @@
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <v>34090</v>
       </c>
       <c r="C55" s="2">
@@ -1600,7 +1604,7 @@
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <v>34121</v>
       </c>
       <c r="C56" s="2">
@@ -1608,7 +1612,7 @@
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <v>34151</v>
       </c>
       <c r="C57" s="2">
@@ -1616,7 +1620,7 @@
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <v>34182</v>
       </c>
       <c r="C58" s="2">
@@ -1624,7 +1628,7 @@
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B59" s="3">
+      <c r="B59" s="4">
         <v>34213</v>
       </c>
       <c r="C59" s="2">
@@ -1632,7 +1636,7 @@
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B60" s="3">
+      <c r="B60" s="4">
         <v>34243</v>
       </c>
       <c r="C60" s="2">
@@ -1640,7 +1644,7 @@
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <v>34274</v>
       </c>
       <c r="C61" s="2">
@@ -1648,7 +1652,7 @@
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <v>34304</v>
       </c>
       <c r="C62" s="2">
@@ -1656,7 +1660,7 @@
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B63" s="3">
+      <c r="B63" s="4">
         <v>34335</v>
       </c>
       <c r="C63" s="2">
@@ -1664,7 +1668,7 @@
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B64" s="3">
+      <c r="B64" s="4">
         <v>34366</v>
       </c>
       <c r="C64" s="2">
@@ -1672,7 +1676,7 @@
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B65" s="3">
+      <c r="B65" s="4">
         <v>34394</v>
       </c>
       <c r="C65" s="2">
@@ -1680,7 +1684,7 @@
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <v>34425</v>
       </c>
       <c r="C66" s="2">
@@ -1688,7 +1692,7 @@
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B67" s="3">
+      <c r="B67" s="4">
         <v>34455</v>
       </c>
       <c r="C67" s="2">
@@ -1696,7 +1700,7 @@
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <v>34486</v>
       </c>
       <c r="C68" s="2">
@@ -1704,7 +1708,7 @@
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B69" s="3">
+      <c r="B69" s="4">
         <v>34516</v>
       </c>
       <c r="C69" s="2">
@@ -1712,7 +1716,7 @@
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B70" s="3">
+      <c r="B70" s="4">
         <v>34547</v>
       </c>
       <c r="C70" s="2">
@@ -1720,7 +1724,7 @@
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B71" s="3">
+      <c r="B71" s="4">
         <v>34578</v>
       </c>
       <c r="C71" s="2">
@@ -1728,7 +1732,7 @@
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B72" s="3">
+      <c r="B72" s="4">
         <v>34608</v>
       </c>
       <c r="C72" s="2">
@@ -1736,7 +1740,7 @@
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B73" s="3">
+      <c r="B73" s="4">
         <v>34639</v>
       </c>
       <c r="C73" s="2">
@@ -1744,7 +1748,7 @@
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B74" s="3">
+      <c r="B74" s="4">
         <v>34669</v>
       </c>
       <c r="C74" s="2">
@@ -1752,7 +1756,7 @@
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B75" s="3">
+      <c r="B75" s="4">
         <v>34700</v>
       </c>
       <c r="C75" s="2">
@@ -1760,7 +1764,7 @@
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B76" s="3">
+      <c r="B76" s="4">
         <v>34731</v>
       </c>
       <c r="C76" s="2">
@@ -1768,7 +1772,7 @@
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B77" s="3">
+      <c r="B77" s="4">
         <v>34759</v>
       </c>
       <c r="C77" s="2">
@@ -1776,7 +1780,7 @@
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B78" s="3">
+      <c r="B78" s="4">
         <v>34790</v>
       </c>
       <c r="C78" s="2">
@@ -1784,7 +1788,7 @@
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B79" s="3">
+      <c r="B79" s="4">
         <v>34820</v>
       </c>
       <c r="C79" s="2">
@@ -1792,7 +1796,7 @@
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B80" s="3">
+      <c r="B80" s="4">
         <v>34851</v>
       </c>
       <c r="C80" s="2">
@@ -1800,7 +1804,7 @@
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B81" s="3">
+      <c r="B81" s="4">
         <v>34881</v>
       </c>
       <c r="C81" s="2">
@@ -1808,7 +1812,7 @@
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B82" s="3">
+      <c r="B82" s="4">
         <v>34912</v>
       </c>
       <c r="C82" s="2">
@@ -1816,7 +1820,7 @@
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B83" s="3">
+      <c r="B83" s="4">
         <v>34943</v>
       </c>
       <c r="C83" s="2">
@@ -1824,7 +1828,7 @@
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B84" s="3">
+      <c r="B84" s="4">
         <v>34973</v>
       </c>
       <c r="C84" s="2">
@@ -1832,7 +1836,7 @@
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B85" s="3">
+      <c r="B85" s="4">
         <v>35004</v>
       </c>
       <c r="C85" s="2">
@@ -1840,7 +1844,7 @@
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B86" s="3">
+      <c r="B86" s="4">
         <v>35034</v>
       </c>
       <c r="C86" s="2">
@@ -1848,7 +1852,7 @@
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B87" s="3">
+      <c r="B87" s="4">
         <v>35065</v>
       </c>
       <c r="C87" s="2">
@@ -1856,7 +1860,7 @@
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B88" s="3">
+      <c r="B88" s="4">
         <v>35096</v>
       </c>
       <c r="C88" s="2">
@@ -1864,7 +1868,7 @@
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B89" s="3">
+      <c r="B89" s="4">
         <v>35125</v>
       </c>
       <c r="C89" s="2">
@@ -1872,7 +1876,7 @@
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B90" s="3">
+      <c r="B90" s="4">
         <v>35156</v>
       </c>
       <c r="C90" s="2">
@@ -1880,7 +1884,7 @@
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B91" s="3">
+      <c r="B91" s="4">
         <v>35186</v>
       </c>
       <c r="C91" s="2">
@@ -1888,7 +1892,7 @@
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B92" s="3">
+      <c r="B92" s="4">
         <v>35217</v>
       </c>
       <c r="C92" s="2">
@@ -1896,7 +1900,7 @@
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B93" s="3">
+      <c r="B93" s="4">
         <v>35247</v>
       </c>
       <c r="C93" s="2">
@@ -1904,7 +1908,7 @@
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B94" s="3">
+      <c r="B94" s="4">
         <v>35278</v>
       </c>
       <c r="C94" s="2">
@@ -1912,7 +1916,7 @@
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B95" s="3">
+      <c r="B95" s="4">
         <v>35309</v>
       </c>
       <c r="C95" s="2">
@@ -1920,7 +1924,7 @@
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B96" s="3">
+      <c r="B96" s="4">
         <v>35339</v>
       </c>
       <c r="C96" s="2">
@@ -1928,7 +1932,7 @@
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B97" s="3">
+      <c r="B97" s="4">
         <v>35370</v>
       </c>
       <c r="C97" s="2">
@@ -1936,7 +1940,7 @@
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B98" s="3">
+      <c r="B98" s="4">
         <v>35400</v>
       </c>
       <c r="C98" s="2">
@@ -1944,7 +1948,7 @@
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B99" s="3">
+      <c r="B99" s="4">
         <v>35431</v>
       </c>
       <c r="C99" s="2">
@@ -1952,7 +1956,7 @@
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B100" s="3">
+      <c r="B100" s="4">
         <v>35462</v>
       </c>
       <c r="C100" s="2">
@@ -1960,7 +1964,7 @@
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B101" s="3">
+      <c r="B101" s="4">
         <v>35490</v>
       </c>
       <c r="C101" s="2">
@@ -1968,7 +1972,7 @@
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B102" s="3">
+      <c r="B102" s="4">
         <v>35521</v>
       </c>
       <c r="C102" s="2">
@@ -1976,7 +1980,7 @@
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B103" s="3">
+      <c r="B103" s="4">
         <v>35551</v>
       </c>
       <c r="C103" s="2">
@@ -1984,7 +1988,7 @@
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B104" s="3">
+      <c r="B104" s="4">
         <v>35582</v>
       </c>
       <c r="C104" s="2">
@@ -1992,7 +1996,7 @@
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B105" s="3">
+      <c r="B105" s="4">
         <v>35612</v>
       </c>
       <c r="C105" s="2">
@@ -2000,7 +2004,7 @@
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B106" s="3">
+      <c r="B106" s="4">
         <v>35643</v>
       </c>
       <c r="C106" s="2">
@@ -2008,7 +2012,7 @@
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B107" s="3">
+      <c r="B107" s="4">
         <v>35674</v>
       </c>
       <c r="C107" s="2">
@@ -2016,7 +2020,7 @@
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B108" s="3">
+      <c r="B108" s="4">
         <v>35704</v>
       </c>
       <c r="C108" s="2">
@@ -2024,7 +2028,7 @@
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B109" s="3">
+      <c r="B109" s="4">
         <v>35735</v>
       </c>
       <c r="C109" s="2">
@@ -2032,7 +2036,7 @@
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B110" s="3">
+      <c r="B110" s="4">
         <v>35765</v>
       </c>
       <c r="C110" s="2">
@@ -2040,7 +2044,7 @@
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B111" s="3">
+      <c r="B111" s="4">
         <v>35796</v>
       </c>
       <c r="C111" s="2">
@@ -2048,7 +2052,7 @@
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B112" s="3">
+      <c r="B112" s="4">
         <v>35827</v>
       </c>
       <c r="C112" s="2">
@@ -2056,7 +2060,7 @@
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B113" s="3">
+      <c r="B113" s="4">
         <v>35855</v>
       </c>
       <c r="C113" s="2">
@@ -2064,7 +2068,7 @@
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B114" s="3">
+      <c r="B114" s="4">
         <v>35886</v>
       </c>
       <c r="C114" s="2">
@@ -2072,7 +2076,7 @@
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B115" s="3">
+      <c r="B115" s="4">
         <v>35916</v>
       </c>
       <c r="C115" s="2">
@@ -2080,7 +2084,7 @@
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B116" s="3">
+      <c r="B116" s="4">
         <v>35947</v>
       </c>
       <c r="C116" s="2">
@@ -2088,7 +2092,7 @@
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B117" s="3">
+      <c r="B117" s="4">
         <v>35977</v>
       </c>
       <c r="C117" s="2">
@@ -2096,7 +2100,7 @@
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B118" s="3">
+      <c r="B118" s="4">
         <v>36008</v>
       </c>
       <c r="C118" s="2">
@@ -2104,7 +2108,7 @@
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B119" s="3">
+      <c r="B119" s="4">
         <v>36039</v>
       </c>
       <c r="C119" s="2">
@@ -2112,7 +2116,7 @@
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B120" s="3">
+      <c r="B120" s="4">
         <v>36069</v>
       </c>
       <c r="C120" s="2">
@@ -2120,7 +2124,7 @@
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B121" s="3">
+      <c r="B121" s="4">
         <v>36100</v>
       </c>
       <c r="C121" s="2">
@@ -2128,7 +2132,7 @@
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B122" s="3">
+      <c r="B122" s="4">
         <v>36130</v>
       </c>
       <c r="C122" s="2">
@@ -2136,7 +2140,7 @@
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B123" s="3">
+      <c r="B123" s="4">
         <v>36161</v>
       </c>
       <c r="C123" s="2">
@@ -2144,7 +2148,7 @@
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B124" s="3">
+      <c r="B124" s="4">
         <v>36192</v>
       </c>
       <c r="C124" s="2">
@@ -2152,7 +2156,7 @@
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B125" s="3">
+      <c r="B125" s="4">
         <v>36220</v>
       </c>
       <c r="C125" s="2">
@@ -2160,7 +2164,7 @@
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B126" s="3">
+      <c r="B126" s="4">
         <v>36251</v>
       </c>
       <c r="C126" s="2">
@@ -2168,7 +2172,7 @@
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B127" s="3">
+      <c r="B127" s="4">
         <v>36281</v>
       </c>
       <c r="C127" s="2">
@@ -2176,7 +2180,7 @@
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B128" s="3">
+      <c r="B128" s="4">
         <v>36312</v>
       </c>
       <c r="C128" s="2">
@@ -2184,7 +2188,7 @@
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B129" s="3">
+      <c r="B129" s="4">
         <v>36342</v>
       </c>
       <c r="C129" s="2">
@@ -2192,7 +2196,7 @@
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B130" s="3">
+      <c r="B130" s="4">
         <v>36373</v>
       </c>
       <c r="C130" s="2">
@@ -2200,7 +2204,7 @@
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B131" s="3">
+      <c r="B131" s="4">
         <v>36404</v>
       </c>
       <c r="C131" s="2">
@@ -2208,7 +2212,7 @@
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B132" s="3">
+      <c r="B132" s="4">
         <v>36434</v>
       </c>
       <c r="C132" s="2">
@@ -2216,7 +2220,7 @@
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B133" s="3">
+      <c r="B133" s="4">
         <v>36465</v>
       </c>
       <c r="C133" s="2">
@@ -2224,7 +2228,7 @@
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B134" s="3">
+      <c r="B134" s="4">
         <v>36495</v>
       </c>
       <c r="C134" s="2">
@@ -2232,7 +2236,7 @@
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B135" s="3">
+      <c r="B135" s="4">
         <v>36526</v>
       </c>
       <c r="C135" s="2">
@@ -2240,7 +2244,7 @@
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B136" s="3">
+      <c r="B136" s="4">
         <v>36557</v>
       </c>
       <c r="C136" s="2">
@@ -2248,7 +2252,7 @@
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B137" s="3">
+      <c r="B137" s="4">
         <v>36586</v>
       </c>
       <c r="C137" s="2">
@@ -2256,7 +2260,7 @@
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B138" s="3">
+      <c r="B138" s="4">
         <v>36617</v>
       </c>
       <c r="C138" s="2">
@@ -2264,7 +2268,7 @@
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B139" s="3">
+      <c r="B139" s="4">
         <v>36647</v>
       </c>
       <c r="C139" s="2">
@@ -2272,7 +2276,7 @@
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B140" s="3">
+      <c r="B140" s="4">
         <v>36678</v>
       </c>
       <c r="C140" s="2">
@@ -2280,7 +2284,7 @@
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B141" s="3">
+      <c r="B141" s="4">
         <v>36708</v>
       </c>
       <c r="C141" s="2">
@@ -2288,7 +2292,7 @@
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B142" s="3">
+      <c r="B142" s="4">
         <v>36739</v>
       </c>
       <c r="C142" s="2">
@@ -2296,7 +2300,7 @@
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B143" s="3">
+      <c r="B143" s="4">
         <v>36770</v>
       </c>
       <c r="C143" s="2">
@@ -2304,7 +2308,7 @@
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B144" s="3">
+      <c r="B144" s="4">
         <v>36800</v>
       </c>
       <c r="C144" s="2">
@@ -2312,7 +2316,7 @@
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B145" s="3">
+      <c r="B145" s="4">
         <v>36831</v>
       </c>
       <c r="C145" s="2">
@@ -2320,7 +2324,7 @@
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B146" s="3">
+      <c r="B146" s="4">
         <v>36861</v>
       </c>
       <c r="C146" s="2">
@@ -2328,7 +2332,7 @@
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B147" s="3">
+      <c r="B147" s="4">
         <v>36892</v>
       </c>
       <c r="C147" s="2">
@@ -2336,7 +2340,7 @@
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B148" s="3">
+      <c r="B148" s="4">
         <v>36923</v>
       </c>
       <c r="C148" s="2">
@@ -2344,7 +2348,7 @@
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B149" s="3">
+      <c r="B149" s="4">
         <v>36951</v>
       </c>
       <c r="C149" s="2">
@@ -2352,7 +2356,7 @@
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B150" s="3">
+      <c r="B150" s="4">
         <v>36982</v>
       </c>
       <c r="C150" s="2">
@@ -2360,7 +2364,7 @@
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B151" s="3">
+      <c r="B151" s="4">
         <v>37012</v>
       </c>
       <c r="C151" s="2">
@@ -2368,7 +2372,7 @@
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B152" s="3">
+      <c r="B152" s="4">
         <v>37043</v>
       </c>
       <c r="C152" s="2">
@@ -2376,7 +2380,7 @@
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B153" s="3">
+      <c r="B153" s="4">
         <v>37073</v>
       </c>
       <c r="C153" s="2">
@@ -2384,7 +2388,7 @@
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B154" s="3">
+      <c r="B154" s="4">
         <v>37104</v>
       </c>
       <c r="C154" s="2">
@@ -2392,7 +2396,7 @@
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B155" s="3">
+      <c r="B155" s="4">
         <v>37135</v>
       </c>
       <c r="C155" s="2">
@@ -2400,7 +2404,7 @@
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B156" s="3">
+      <c r="B156" s="4">
         <v>37165</v>
       </c>
       <c r="C156" s="2">
@@ -2408,7 +2412,7 @@
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B157" s="3">
+      <c r="B157" s="4">
         <v>37196</v>
       </c>
       <c r="C157" s="2">
@@ -2416,7 +2420,7 @@
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B158" s="3">
+      <c r="B158" s="4">
         <v>37226</v>
       </c>
       <c r="C158" s="2">
@@ -2424,7 +2428,7 @@
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B159" s="3">
+      <c r="B159" s="4">
         <v>37257</v>
       </c>
       <c r="C159" s="2">
@@ -2432,7 +2436,7 @@
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B160" s="3">
+      <c r="B160" s="4">
         <v>37288</v>
       </c>
       <c r="C160" s="2">
@@ -2440,7 +2444,7 @@
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B161" s="3">
+      <c r="B161" s="4">
         <v>37316</v>
       </c>
       <c r="C161" s="2">
@@ -2448,7 +2452,7 @@
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B162" s="3">
+      <c r="B162" s="4">
         <v>37347</v>
       </c>
       <c r="C162" s="2">
@@ -2456,7 +2460,7 @@
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B163" s="3">
+      <c r="B163" s="4">
         <v>37377</v>
       </c>
       <c r="C163" s="2">
@@ -2464,7 +2468,7 @@
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B164" s="3">
+      <c r="B164" s="4">
         <v>37408</v>
       </c>
       <c r="C164" s="2">
@@ -2472,7 +2476,7 @@
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B165" s="3">
+      <c r="B165" s="4">
         <v>37438</v>
       </c>
       <c r="C165" s="2">
@@ -2480,7 +2484,7 @@
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B166" s="3">
+      <c r="B166" s="4">
         <v>37469</v>
       </c>
       <c r="C166" s="2">
@@ -2488,7 +2492,7 @@
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B167" s="3">
+      <c r="B167" s="4">
         <v>37500</v>
       </c>
       <c r="C167" s="2">
@@ -2496,7 +2500,7 @@
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B168" s="3">
+      <c r="B168" s="4">
         <v>37530</v>
       </c>
       <c r="C168" s="2">
@@ -2504,7 +2508,7 @@
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B169" s="3">
+      <c r="B169" s="4">
         <v>37561</v>
       </c>
       <c r="C169" s="2">
@@ -2512,7 +2516,7 @@
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B170" s="3">
+      <c r="B170" s="4">
         <v>37591</v>
       </c>
       <c r="C170" s="2">
@@ -2520,7 +2524,7 @@
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B171" s="3">
+      <c r="B171" s="4">
         <v>37622</v>
       </c>
       <c r="C171" s="2">
@@ -2528,7 +2532,7 @@
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B172" s="3">
+      <c r="B172" s="4">
         <v>37653</v>
       </c>
       <c r="C172" s="2">
@@ -2536,7 +2540,7 @@
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B173" s="3">
+      <c r="B173" s="4">
         <v>37681</v>
       </c>
       <c r="C173" s="2">
@@ -2544,7 +2548,7 @@
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B174" s="3">
+      <c r="B174" s="4">
         <v>37712</v>
       </c>
       <c r="C174" s="2">
@@ -2552,7 +2556,7 @@
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B175" s="3">
+      <c r="B175" s="4">
         <v>37742</v>
       </c>
       <c r="C175" s="2">
@@ -2560,7 +2564,7 @@
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B176" s="3">
+      <c r="B176" s="4">
         <v>37773</v>
       </c>
       <c r="C176" s="2">
@@ -2568,7 +2572,7 @@
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B177" s="3">
+      <c r="B177" s="4">
         <v>37803</v>
       </c>
       <c r="C177" s="2">
@@ -2576,7 +2580,7 @@
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B178" s="3">
+      <c r="B178" s="4">
         <v>37834</v>
       </c>
       <c r="C178" s="2">
@@ -2584,7 +2588,7 @@
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B179" s="3">
+      <c r="B179" s="4">
         <v>37865</v>
       </c>
       <c r="C179" s="2">
@@ -2592,7 +2596,7 @@
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B180" s="3">
+      <c r="B180" s="4">
         <v>37895</v>
       </c>
       <c r="C180" s="2">
@@ -2600,7 +2604,7 @@
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B181" s="3">
+      <c r="B181" s="4">
         <v>37926</v>
       </c>
       <c r="C181" s="2">
@@ -2608,7 +2612,7 @@
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B182" s="3">
+      <c r="B182" s="4">
         <v>37956</v>
       </c>
       <c r="C182" s="2">
@@ -2616,7 +2620,7 @@
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B183" s="3">
+      <c r="B183" s="4">
         <v>37987</v>
       </c>
       <c r="C183" s="2">
@@ -2624,7 +2628,7 @@
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B184" s="3">
+      <c r="B184" s="4">
         <v>38018</v>
       </c>
       <c r="C184" s="2">
@@ -2632,7 +2636,7 @@
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B185" s="3">
+      <c r="B185" s="4">
         <v>38047</v>
       </c>
       <c r="C185" s="2">
@@ -2640,7 +2644,7 @@
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B186" s="3">
+      <c r="B186" s="4">
         <v>38078</v>
       </c>
       <c r="C186" s="2">
@@ -2648,7 +2652,7 @@
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B187" s="3">
+      <c r="B187" s="4">
         <v>38108</v>
       </c>
       <c r="C187" s="2">
@@ -2656,7 +2660,7 @@
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B188" s="3">
+      <c r="B188" s="4">
         <v>38139</v>
       </c>
       <c r="C188" s="2">
@@ -2664,7 +2668,7 @@
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B189" s="3">
+      <c r="B189" s="4">
         <v>38169</v>
       </c>
       <c r="C189" s="2">
@@ -2672,7 +2676,7 @@
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B190" s="3">
+      <c r="B190" s="4">
         <v>38200</v>
       </c>
       <c r="C190" s="2">
@@ -2680,7 +2684,7 @@
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B191" s="3">
+      <c r="B191" s="4">
         <v>38231</v>
       </c>
       <c r="C191" s="2">
@@ -2688,7 +2692,7 @@
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B192" s="3">
+      <c r="B192" s="4">
         <v>38261</v>
       </c>
       <c r="C192" s="2">
@@ -2696,7 +2700,7 @@
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B193" s="3">
+      <c r="B193" s="4">
         <v>38292</v>
       </c>
       <c r="C193" s="2">
@@ -2704,7 +2708,7 @@
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B194" s="3">
+      <c r="B194" s="4">
         <v>38322</v>
       </c>
       <c r="C194" s="2">
@@ -2712,7 +2716,7 @@
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B195" s="3">
+      <c r="B195" s="4">
         <v>38353</v>
       </c>
       <c r="C195" s="2">
@@ -2720,7 +2724,7 @@
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B196" s="3">
+      <c r="B196" s="4">
         <v>38384</v>
       </c>
       <c r="C196" s="2">
@@ -2728,7 +2732,7 @@
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B197" s="3">
+      <c r="B197" s="4">
         <v>38412</v>
       </c>
       <c r="C197" s="2">
@@ -2736,7 +2740,7 @@
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B198" s="3">
+      <c r="B198" s="4">
         <v>38443</v>
       </c>
       <c r="C198" s="2">
@@ -2744,7 +2748,7 @@
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B199" s="3">
+      <c r="B199" s="4">
         <v>38473</v>
       </c>
       <c r="C199" s="2">
@@ -2752,7 +2756,7 @@
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B200" s="3">
+      <c r="B200" s="4">
         <v>38504</v>
       </c>
       <c r="C200" s="2">
@@ -2760,7 +2764,7 @@
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B201" s="3">
+      <c r="B201" s="4">
         <v>38534</v>
       </c>
       <c r="C201" s="2">
@@ -2768,7 +2772,7 @@
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B202" s="3">
+      <c r="B202" s="4">
         <v>38565</v>
       </c>
       <c r="C202" s="2">
@@ -2776,7 +2780,7 @@
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B203" s="3">
+      <c r="B203" s="4">
         <v>38596</v>
       </c>
       <c r="C203" s="2">
@@ -2784,7 +2788,7 @@
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B204" s="3">
+      <c r="B204" s="4">
         <v>38626</v>
       </c>
       <c r="C204" s="2">
@@ -2792,7 +2796,7 @@
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B205" s="3">
+      <c r="B205" s="4">
         <v>38657</v>
       </c>
       <c r="C205" s="2">
@@ -2800,7 +2804,7 @@
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B206" s="3">
+      <c r="B206" s="4">
         <v>38687</v>
       </c>
       <c r="C206" s="2">
@@ -2808,7 +2812,7 @@
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B207" s="3">
+      <c r="B207" s="4">
         <v>38718</v>
       </c>
       <c r="C207" s="2">
@@ -2816,7 +2820,7 @@
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B208" s="3">
+      <c r="B208" s="4">
         <v>38749</v>
       </c>
       <c r="C208" s="2">
@@ -2824,7 +2828,7 @@
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B209" s="3">
+      <c r="B209" s="4">
         <v>38777</v>
       </c>
       <c r="C209" s="2">
@@ -2832,7 +2836,7 @@
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B210" s="3">
+      <c r="B210" s="4">
         <v>38808</v>
       </c>
       <c r="C210" s="2">
@@ -2840,7 +2844,7 @@
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B211" s="3">
+      <c r="B211" s="4">
         <v>38838</v>
       </c>
       <c r="C211" s="2">
@@ -2848,7 +2852,7 @@
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B212" s="3">
+      <c r="B212" s="4">
         <v>38869</v>
       </c>
       <c r="C212" s="2">
@@ -2856,7 +2860,7 @@
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B213" s="3">
+      <c r="B213" s="4">
         <v>38899</v>
       </c>
       <c r="C213" s="2">
@@ -2864,7 +2868,7 @@
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B214" s="3">
+      <c r="B214" s="4">
         <v>38930</v>
       </c>
       <c r="C214" s="2">
@@ -2872,7 +2876,7 @@
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B215" s="3">
+      <c r="B215" s="4">
         <v>38961</v>
       </c>
       <c r="C215" s="2">
@@ -2880,7 +2884,7 @@
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B216" s="3">
+      <c r="B216" s="4">
         <v>38991</v>
       </c>
       <c r="C216" s="2">
@@ -2888,7 +2892,7 @@
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B217" s="3">
+      <c r="B217" s="4">
         <v>39022</v>
       </c>
       <c r="C217" s="2">
@@ -2896,7 +2900,7 @@
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B218" s="3">
+      <c r="B218" s="4">
         <v>39052</v>
       </c>
       <c r="C218" s="2">
@@ -2904,7 +2908,7 @@
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B219" s="3">
+      <c r="B219" s="4">
         <v>39083</v>
       </c>
       <c r="C219" s="2">
@@ -2912,7 +2916,7 @@
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B220" s="3">
+      <c r="B220" s="4">
         <v>39114</v>
       </c>
       <c r="C220" s="2">
@@ -2920,7 +2924,7 @@
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B221" s="3">
+      <c r="B221" s="4">
         <v>39142</v>
       </c>
       <c r="C221" s="2">
@@ -2928,7 +2932,7 @@
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B222" s="3">
+      <c r="B222" s="4">
         <v>39173</v>
       </c>
       <c r="C222" s="2">
@@ -2936,7 +2940,7 @@
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B223" s="3">
+      <c r="B223" s="4">
         <v>39203</v>
       </c>
       <c r="C223" s="2">
@@ -2944,7 +2948,7 @@
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B224" s="3">
+      <c r="B224" s="4">
         <v>39234</v>
       </c>
       <c r="C224" s="2">
@@ -2952,7 +2956,7 @@
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B225" s="3">
+      <c r="B225" s="4">
         <v>39264</v>
       </c>
       <c r="C225" s="2">
@@ -2960,7 +2964,7 @@
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B226" s="3">
+      <c r="B226" s="4">
         <v>39295</v>
       </c>
       <c r="C226" s="2">
@@ -2968,7 +2972,7 @@
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B227" s="3">
+      <c r="B227" s="4">
         <v>39326</v>
       </c>
       <c r="C227" s="2">
@@ -2976,7 +2980,7 @@
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B228" s="3">
+      <c r="B228" s="4">
         <v>39356</v>
       </c>
       <c r="C228" s="2">
@@ -2984,7 +2988,7 @@
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B229" s="3">
+      <c r="B229" s="4">
         <v>39387</v>
       </c>
       <c r="C229" s="2">
@@ -2992,7 +2996,7 @@
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B230" s="3">
+      <c r="B230" s="4">
         <v>39417</v>
       </c>
       <c r="C230" s="2">
@@ -3000,7 +3004,7 @@
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B231" s="3">
+      <c r="B231" s="4">
         <v>39448</v>
       </c>
       <c r="C231" s="2">
@@ -3008,7 +3012,7 @@
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B232" s="3">
+      <c r="B232" s="4">
         <v>39479</v>
       </c>
       <c r="C232" s="2">
@@ -3016,7 +3020,7 @@
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B233" s="3">
+      <c r="B233" s="4">
         <v>39508</v>
       </c>
       <c r="C233" s="2">
@@ -3024,7 +3028,7 @@
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B234" s="3">
+      <c r="B234" s="4">
         <v>39539</v>
       </c>
       <c r="C234" s="2">
@@ -3032,7 +3036,7 @@
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B235" s="3">
+      <c r="B235" s="4">
         <v>39569</v>
       </c>
       <c r="C235" s="2">
@@ -3040,7 +3044,7 @@
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B236" s="3">
+      <c r="B236" s="4">
         <v>39600</v>
       </c>
       <c r="C236" s="2">
@@ -3048,7 +3052,7 @@
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B237" s="3">
+      <c r="B237" s="4">
         <v>39630</v>
       </c>
       <c r="C237" s="2">
@@ -3056,7 +3060,7 @@
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B238" s="3">
+      <c r="B238" s="4">
         <v>39661</v>
       </c>
       <c r="C238" s="2">
@@ -3064,7 +3068,7 @@
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B239" s="3">
+      <c r="B239" s="4">
         <v>39692</v>
       </c>
       <c r="C239" s="2">
@@ -3072,7 +3076,7 @@
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B240" s="3">
+      <c r="B240" s="4">
         <v>39722</v>
       </c>
       <c r="C240" s="2">
@@ -3080,7 +3084,7 @@
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B241" s="3">
+      <c r="B241" s="4">
         <v>39753</v>
       </c>
       <c r="C241" s="2">
@@ -3088,7 +3092,7 @@
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B242" s="3">
+      <c r="B242" s="4">
         <v>39783</v>
       </c>
       <c r="C242" s="2">
@@ -3096,7 +3100,7 @@
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B243" s="3">
+      <c r="B243" s="4">
         <v>39814</v>
       </c>
       <c r="C243" s="2">
@@ -3104,7 +3108,7 @@
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B244" s="3">
+      <c r="B244" s="4">
         <v>39845</v>
       </c>
       <c r="C244" s="2">
@@ -3112,7 +3116,7 @@
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B245" s="3">
+      <c r="B245" s="4">
         <v>39873</v>
       </c>
       <c r="C245" s="2">
@@ -3120,7 +3124,7 @@
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B246" s="3">
+      <c r="B246" s="4">
         <v>39904</v>
       </c>
       <c r="C246" s="2">
@@ -3128,7 +3132,7 @@
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B247" s="3">
+      <c r="B247" s="4">
         <v>39934</v>
       </c>
       <c r="C247" s="2">
@@ -3136,7 +3140,7 @@
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B248" s="3">
+      <c r="B248" s="4">
         <v>39965</v>
       </c>
       <c r="C248" s="2">
@@ -3144,7 +3148,7 @@
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B249" s="3">
+      <c r="B249" s="4">
         <v>39995</v>
       </c>
       <c r="C249" s="2">
@@ -3152,7 +3156,7 @@
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B250" s="3">
+      <c r="B250" s="4">
         <v>40026</v>
       </c>
       <c r="C250" s="2">
@@ -3160,7 +3164,7 @@
       </c>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B251" s="3">
+      <c r="B251" s="4">
         <v>40057</v>
       </c>
       <c r="C251" s="2">
@@ -3168,7 +3172,7 @@
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B252" s="3">
+      <c r="B252" s="4">
         <v>40087</v>
       </c>
       <c r="C252" s="2">
@@ -3176,7 +3180,7 @@
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B253" s="3">
+      <c r="B253" s="4">
         <v>40118</v>
       </c>
       <c r="C253" s="2">
@@ -3184,7 +3188,7 @@
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B254" s="3">
+      <c r="B254" s="4">
         <v>40148</v>
       </c>
       <c r="C254" s="2">
@@ -3192,7 +3196,7 @@
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B255" s="3">
+      <c r="B255" s="4">
         <v>40179</v>
       </c>
       <c r="C255" s="2">
@@ -3200,7 +3204,7 @@
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B256" s="3">
+      <c r="B256" s="4">
         <v>40210</v>
       </c>
       <c r="C256" s="2">
@@ -3208,7 +3212,7 @@
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B257" s="3">
+      <c r="B257" s="4">
         <v>40238</v>
       </c>
       <c r="C257" s="2">
@@ -3216,7 +3220,7 @@
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B258" s="3">
+      <c r="B258" s="4">
         <v>40269</v>
       </c>
       <c r="C258" s="2">
@@ -3224,7 +3228,7 @@
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B259" s="3">
+      <c r="B259" s="4">
         <v>40299</v>
       </c>
       <c r="C259" s="2">
@@ -3232,7 +3236,7 @@
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B260" s="3">
+      <c r="B260" s="4">
         <v>40330</v>
       </c>
       <c r="C260" s="2">
@@ -3240,7 +3244,7 @@
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B261" s="3">
+      <c r="B261" s="4">
         <v>40360</v>
       </c>
       <c r="C261" s="2">
@@ -3248,7 +3252,7 @@
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B262" s="3">
+      <c r="B262" s="4">
         <v>40391</v>
       </c>
       <c r="C262" s="2">
@@ -3256,7 +3260,7 @@
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B263" s="3">
+      <c r="B263" s="4">
         <v>40422</v>
       </c>
       <c r="C263" s="2">
@@ -3264,7 +3268,7 @@
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B264" s="3">
+      <c r="B264" s="4">
         <v>40452</v>
       </c>
       <c r="C264" s="2">
@@ -3272,7 +3276,7 @@
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B265" s="3">
+      <c r="B265" s="4">
         <v>40483</v>
       </c>
       <c r="C265" s="2">
@@ -3280,7 +3284,7 @@
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B266" s="3">
+      <c r="B266" s="4">
         <v>40513</v>
       </c>
       <c r="C266" s="2">
@@ -3288,7 +3292,7 @@
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B267" s="3">
+      <c r="B267" s="4">
         <v>40544</v>
       </c>
       <c r="C267" s="2">
@@ -3296,7 +3300,7 @@
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B268" s="3">
+      <c r="B268" s="4">
         <v>40575</v>
       </c>
       <c r="C268" s="2">
@@ -3304,7 +3308,7 @@
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B269" s="3">
+      <c r="B269" s="4">
         <v>40603</v>
       </c>
       <c r="C269" s="2">
@@ -3312,7 +3316,7 @@
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B270" s="3">
+      <c r="B270" s="4">
         <v>40634</v>
       </c>
       <c r="C270" s="2">
@@ -3320,7 +3324,7 @@
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B271" s="3">
+      <c r="B271" s="4">
         <v>40664</v>
       </c>
       <c r="C271" s="2">
@@ -3328,7 +3332,7 @@
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B272" s="3">
+      <c r="B272" s="4">
         <v>40695</v>
       </c>
       <c r="C272" s="2">
@@ -3336,7 +3340,7 @@
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B273" s="3">
+      <c r="B273" s="4">
         <v>40725</v>
       </c>
       <c r="C273" s="2">
@@ -3344,7 +3348,7 @@
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B274" s="3">
+      <c r="B274" s="4">
         <v>40756</v>
       </c>
       <c r="C274" s="2">
@@ -3352,7 +3356,7 @@
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B275" s="3">
+      <c r="B275" s="4">
         <v>40787</v>
       </c>
       <c r="C275" s="2">
@@ -3360,7 +3364,7 @@
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B276" s="3">
+      <c r="B276" s="4">
         <v>40817</v>
       </c>
       <c r="C276" s="2">
@@ -3368,7 +3372,7 @@
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B277" s="3">
+      <c r="B277" s="4">
         <v>40848</v>
       </c>
       <c r="C277" s="2">
@@ -3376,7 +3380,7 @@
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B278" s="3">
+      <c r="B278" s="4">
         <v>40878</v>
       </c>
       <c r="C278" s="2">
@@ -3384,7 +3388,7 @@
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B279" s="3">
+      <c r="B279" s="4">
         <v>40909</v>
       </c>
       <c r="C279" s="2">
@@ -3392,7 +3396,7 @@
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B280" s="3">
+      <c r="B280" s="4">
         <v>40940</v>
       </c>
       <c r="C280" s="2">
@@ -3400,7 +3404,7 @@
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B281" s="3">
+      <c r="B281" s="4">
         <v>40969</v>
       </c>
       <c r="C281" s="2">
@@ -3408,7 +3412,7 @@
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B282" s="3">
+      <c r="B282" s="4">
         <v>41000</v>
       </c>
       <c r="C282" s="2">
@@ -3416,7 +3420,7 @@
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B283" s="3">
+      <c r="B283" s="4">
         <v>41030</v>
       </c>
       <c r="C283" s="2">
@@ -3424,7 +3428,7 @@
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B284" s="3">
+      <c r="B284" s="4">
         <v>41061</v>
       </c>
       <c r="C284" s="2">
@@ -3432,7 +3436,7 @@
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B285" s="3">
+      <c r="B285" s="4">
         <v>41091</v>
       </c>
       <c r="C285" s="2">
@@ -3440,7 +3444,7 @@
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B286" s="3">
+      <c r="B286" s="4">
         <v>41122</v>
       </c>
       <c r="C286" s="2">
@@ -3448,7 +3452,7 @@
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B287" s="3">
+      <c r="B287" s="4">
         <v>41153</v>
       </c>
       <c r="C287" s="2">
@@ -3456,7 +3460,7 @@
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B288" s="3">
+      <c r="B288" s="4">
         <v>41183</v>
       </c>
       <c r="C288" s="2">
@@ -3464,7 +3468,7 @@
       </c>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B289" s="3">
+      <c r="B289" s="4">
         <v>41214</v>
       </c>
       <c r="C289" s="2">
@@ -3472,7 +3476,7 @@
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B290" s="3">
+      <c r="B290" s="4">
         <v>41244</v>
       </c>
       <c r="C290" s="2">
@@ -3480,7 +3484,7 @@
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B291" s="3">
+      <c r="B291" s="4">
         <v>41275</v>
       </c>
       <c r="C291" s="2">
@@ -3488,7 +3492,7 @@
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B292" s="3">
+      <c r="B292" s="4">
         <v>41306</v>
       </c>
       <c r="C292" s="2">
@@ -3496,7 +3500,7 @@
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B293" s="3">
+      <c r="B293" s="4">
         <v>41334</v>
       </c>
       <c r="C293" s="2">
@@ -3504,7 +3508,7 @@
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B294" s="3">
+      <c r="B294" s="4">
         <v>41365</v>
       </c>
       <c r="C294" s="2">
@@ -3512,7 +3516,7 @@
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B295" s="3">
+      <c r="B295" s="4">
         <v>41395</v>
       </c>
       <c r="C295" s="2">
@@ -3520,7 +3524,7 @@
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B296" s="3">
+      <c r="B296" s="4">
         <v>41426</v>
       </c>
       <c r="C296" s="2">
@@ -3528,7 +3532,7 @@
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B297" s="3">
+      <c r="B297" s="4">
         <v>41456</v>
       </c>
       <c r="C297" s="2">
@@ -3536,7 +3540,7 @@
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B298" s="3">
+      <c r="B298" s="4">
         <v>41487</v>
       </c>
       <c r="C298" s="2">
@@ -3544,7 +3548,7 @@
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B299" s="3">
+      <c r="B299" s="4">
         <v>41518</v>
       </c>
       <c r="C299" s="2">
@@ -3552,7 +3556,7 @@
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B300" s="3">
+      <c r="B300" s="4">
         <v>41548</v>
       </c>
       <c r="C300" s="2">
@@ -3560,7 +3564,7 @@
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B301" s="3">
+      <c r="B301" s="4">
         <v>41579</v>
       </c>
       <c r="C301" s="2">
@@ -3568,7 +3572,7 @@
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B302" s="3">
+      <c r="B302" s="4">
         <v>41609</v>
       </c>
       <c r="C302" s="2">
@@ -3576,7 +3580,7 @@
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B303" s="3">
+      <c r="B303" s="4">
         <v>41640</v>
       </c>
       <c r="C303" s="2">
@@ -3584,7 +3588,7 @@
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B304" s="3">
+      <c r="B304" s="4">
         <v>41671</v>
       </c>
       <c r="C304" s="2">
@@ -3592,7 +3596,7 @@
       </c>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B305" s="3">
+      <c r="B305" s="4">
         <v>41699</v>
       </c>
       <c r="C305" s="2">
@@ -3600,7 +3604,7 @@
       </c>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B306" s="3">
+      <c r="B306" s="4">
         <v>41730</v>
       </c>
       <c r="C306" s="2">
@@ -3608,7 +3612,7 @@
       </c>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B307" s="3">
+      <c r="B307" s="4">
         <v>41760</v>
       </c>
       <c r="C307" s="2">
@@ -3616,7 +3620,7 @@
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B308" s="3">
+      <c r="B308" s="4">
         <v>41791</v>
       </c>
       <c r="C308" s="2">
@@ -3624,7 +3628,7 @@
       </c>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B309" s="3">
+      <c r="B309" s="4">
         <v>41821</v>
       </c>
       <c r="C309" s="2">
@@ -3632,7 +3636,7 @@
       </c>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B310" s="3">
+      <c r="B310" s="4">
         <v>41852</v>
       </c>
       <c r="C310" s="2">
@@ -3640,7 +3644,7 @@
       </c>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B311" s="3">
+      <c r="B311" s="4">
         <v>41883</v>
       </c>
       <c r="C311" s="2">
@@ -3648,7 +3652,7 @@
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B312" s="3">
+      <c r="B312" s="4">
         <v>41913</v>
       </c>
       <c r="C312" s="2">
@@ -3656,7 +3660,7 @@
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B313" s="3">
+      <c r="B313" s="4">
         <v>41944</v>
       </c>
       <c r="C313" s="2">
@@ -3664,7 +3668,7 @@
       </c>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B314" s="3">
+      <c r="B314" s="4">
         <v>41974</v>
       </c>
       <c r="C314" s="2">
@@ -3672,7 +3676,7 @@
       </c>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B315" s="3">
+      <c r="B315" s="4">
         <v>42005</v>
       </c>
       <c r="C315" s="2">
@@ -3680,7 +3684,7 @@
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B316" s="3">
+      <c r="B316" s="4">
         <v>42036</v>
       </c>
       <c r="C316" s="2">
@@ -3688,7 +3692,7 @@
       </c>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B317" s="3">
+      <c r="B317" s="4">
         <v>42064</v>
       </c>
       <c r="C317" s="2">
@@ -3696,7 +3700,7 @@
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B318" s="3">
+      <c r="B318" s="4">
         <v>42095</v>
       </c>
       <c r="C318" s="2">
@@ -3704,7 +3708,7 @@
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B319" s="3">
+      <c r="B319" s="4">
         <v>42125</v>
       </c>
       <c r="C319" s="2">
@@ -3712,7 +3716,7 @@
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B320" s="3">
+      <c r="B320" s="4">
         <v>42156</v>
       </c>
       <c r="C320" s="2">
@@ -3720,7 +3724,7 @@
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B321" s="3">
+      <c r="B321" s="4">
         <v>42186</v>
       </c>
       <c r="C321" s="2">
@@ -3728,7 +3732,7 @@
       </c>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B322" s="3">
+      <c r="B322" s="4">
         <v>42217</v>
       </c>
       <c r="C322" s="2">
@@ -3736,7 +3740,7 @@
       </c>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B323" s="3">
+      <c r="B323" s="4">
         <v>42248</v>
       </c>
       <c r="C323" s="2">
@@ -3744,7 +3748,7 @@
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B324" s="3">
+      <c r="B324" s="4">
         <v>42278</v>
       </c>
       <c r="C324" s="2">
@@ -3752,7 +3756,7 @@
       </c>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B325" s="3">
+      <c r="B325" s="4">
         <v>42309</v>
       </c>
       <c r="C325" s="2">
@@ -3760,7 +3764,7 @@
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B326" s="3">
+      <c r="B326" s="4">
         <v>42339</v>
       </c>
       <c r="C326" s="2">
@@ -3768,7 +3772,7 @@
       </c>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B327" s="3">
+      <c r="B327" s="4">
         <v>42370</v>
       </c>
       <c r="C327" s="2">
@@ -3776,7 +3780,7 @@
       </c>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B328" s="3">
+      <c r="B328" s="4">
         <v>42401</v>
       </c>
       <c r="C328" s="2">
@@ -3784,7 +3788,7 @@
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B329" s="3">
+      <c r="B329" s="4">
         <v>42430</v>
       </c>
       <c r="C329" s="2">
@@ -3792,7 +3796,7 @@
       </c>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B330" s="3">
+      <c r="B330" s="4">
         <v>42461</v>
       </c>
       <c r="C330" s="2">
@@ -3800,7 +3804,7 @@
       </c>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B331" s="3">
+      <c r="B331" s="4">
         <v>42491</v>
       </c>
       <c r="C331" s="2">
@@ -3808,7 +3812,7 @@
       </c>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B332" s="3">
+      <c r="B332" s="4">
         <v>42522</v>
       </c>
       <c r="C332" s="2">
@@ -3816,7 +3820,7 @@
       </c>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B333" s="3">
+      <c r="B333" s="4">
         <v>42552</v>
       </c>
       <c r="C333" s="2">
@@ -3824,7 +3828,7 @@
       </c>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B334" s="3">
+      <c r="B334" s="4">
         <v>42583</v>
       </c>
       <c r="C334" s="2">
@@ -3832,7 +3836,7 @@
       </c>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B335" s="3">
+      <c r="B335" s="4">
         <v>42614</v>
       </c>
       <c r="C335" s="2">
@@ -3840,7 +3844,7 @@
       </c>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B336" s="3">
+      <c r="B336" s="4">
         <v>42644</v>
       </c>
       <c r="C336" s="2">
@@ -3848,7 +3852,7 @@
       </c>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B337" s="3">
+      <c r="B337" s="4">
         <v>42675</v>
       </c>
       <c r="C337" s="2">
@@ -3856,7 +3860,7 @@
       </c>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B338" s="3">
+      <c r="B338" s="4">
         <v>42705</v>
       </c>
       <c r="C338" s="2">
@@ -3864,7 +3868,7 @@
       </c>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B339" s="3">
+      <c r="B339" s="4">
         <v>42736</v>
       </c>
       <c r="C339" s="2">
@@ -3872,7 +3876,7 @@
       </c>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B340" s="3">
+      <c r="B340" s="4">
         <v>42767</v>
       </c>
       <c r="C340" s="2">
@@ -3880,7 +3884,7 @@
       </c>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B341" s="3">
+      <c r="B341" s="4">
         <v>42795</v>
       </c>
       <c r="C341" s="2">
@@ -3888,7 +3892,7 @@
       </c>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B342" s="3">
+      <c r="B342" s="4">
         <v>42826</v>
       </c>
       <c r="C342" s="2">
@@ -3896,7 +3900,7 @@
       </c>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B343" s="3">
+      <c r="B343" s="4">
         <v>42856</v>
       </c>
       <c r="C343" s="2">
@@ -3904,7 +3908,7 @@
       </c>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B344" s="3">
+      <c r="B344" s="4">
         <v>42887</v>
       </c>
       <c r="C344" s="2">
@@ -3912,7 +3916,7 @@
       </c>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B345" s="3">
+      <c r="B345" s="4">
         <v>42917</v>
       </c>
       <c r="C345" s="2">
@@ -3920,7 +3924,7 @@
       </c>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B346" s="3">
+      <c r="B346" s="4">
         <v>42948</v>
       </c>
       <c r="C346" s="2">
@@ -3928,7 +3932,7 @@
       </c>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B347" s="3">
+      <c r="B347" s="4">
         <v>42979</v>
       </c>
       <c r="C347" s="2">
@@ -3936,7 +3940,7 @@
       </c>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B348" s="3">
+      <c r="B348" s="4">
         <v>43009</v>
       </c>
       <c r="C348" s="2">
@@ -3944,7 +3948,7 @@
       </c>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B349" s="3">
+      <c r="B349" s="4">
         <v>43040</v>
       </c>
       <c r="C349" s="2">
@@ -3952,7 +3956,7 @@
       </c>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B350" s="3">
+      <c r="B350" s="4">
         <v>43070</v>
       </c>
       <c r="C350" s="2">
@@ -3960,7 +3964,7 @@
       </c>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B351" s="3">
+      <c r="B351" s="4">
         <v>43101</v>
       </c>
       <c r="C351" s="2">
@@ -3968,7 +3972,7 @@
       </c>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B352" s="3">
+      <c r="B352" s="4">
         <v>43132</v>
       </c>
       <c r="C352" s="2">
@@ -3976,7 +3980,7 @@
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B353" s="3">
+      <c r="B353" s="4">
         <v>43160</v>
       </c>
       <c r="C353" s="2">
@@ -3984,7 +3988,7 @@
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B354" s="3">
+      <c r="B354" s="4">
         <v>43191</v>
       </c>
       <c r="C354" s="2">
@@ -3992,7 +3996,7 @@
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B355" s="3">
+      <c r="B355" s="4">
         <v>43221</v>
       </c>
       <c r="C355" s="2">
@@ -4000,7 +4004,7 @@
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B356" s="3">
+      <c r="B356" s="4">
         <v>43252</v>
       </c>
       <c r="C356" s="2">
@@ -4008,7 +4012,7 @@
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B357" s="3">
+      <c r="B357" s="4">
         <v>43282</v>
       </c>
       <c r="C357" s="2">
@@ -4016,7 +4020,7 @@
       </c>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B358" s="3">
+      <c r="B358" s="4">
         <v>43313</v>
       </c>
       <c r="C358" s="2">
@@ -4024,7 +4028,7 @@
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B359" s="3">
+      <c r="B359" s="4">
         <v>43344</v>
       </c>
       <c r="C359" s="2">
@@ -4032,7 +4036,7 @@
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B360" s="3">
+      <c r="B360" s="4">
         <v>43374</v>
       </c>
       <c r="C360" s="2">
@@ -4040,7 +4044,7 @@
       </c>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B361" s="3">
+      <c r="B361" s="4">
         <v>43405</v>
       </c>
       <c r="C361" s="2">
@@ -4048,7 +4052,7 @@
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B362" s="3">
+      <c r="B362" s="4">
         <v>43435</v>
       </c>
       <c r="C362" s="2">
